--- a/data/fiche_comm/adm0_fiche_comm.xlsx
+++ b/data/fiche_comm/adm0_fiche_comm.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_CHIPC_dataprocessing\data\fiche_comm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694CC905-CB2B-4337-87E5-7EF87AA9AC29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED48B8FA-BE47-4154-A4DD-B6EDDCCDD0F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="420" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adm0" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">adm0!$A$1:$AN$568</definedName>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4617" uniqueCount="134">
   <si>
     <t>adm0_pcod3</t>
   </si>
@@ -1155,8 +1154,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AN994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C550" sqref="C550:Q568"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M579" sqref="M579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -32409,7 +32408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="533" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="31" t="s">
         <v>17</v>
       </c>
@@ -32471,7 +32470,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="534" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="31" t="s">
         <v>22</v>
       </c>
@@ -32533,7 +32532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="535" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="31" t="s">
         <v>27</v>
       </c>
@@ -32595,7 +32594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="536" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="31" t="s">
         <v>34</v>
       </c>
@@ -32657,7 +32656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="537" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="31" t="s">
         <v>38</v>
       </c>
@@ -32719,7 +32718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="538" spans="1:21" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="31" t="s">
         <v>40</v>
       </c>
@@ -32781,7 +32780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="539" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="110" t="s">
         <v>42</v>
       </c>
@@ -32829,7 +32828,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="540" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="113" t="s">
         <v>44</v>
       </c>
@@ -32891,7 +32890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="541" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="113" t="s">
         <v>46</v>
       </c>
@@ -32953,7 +32952,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="542" spans="1:21" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="31" t="s">
         <v>48</v>
       </c>
@@ -32987,7 +32986,7 @@
       <c r="K542" s="106">
         <v>24933140</v>
       </c>
-      <c r="L542" s="25">
+      <c r="L542" s="106">
         <v>16562594</v>
       </c>
       <c r="M542" s="106">
@@ -33015,7 +33014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="543" spans="1:21" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="31" t="s">
         <v>50</v>
       </c>
@@ -33077,7 +33076,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="544" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="110" t="s">
         <v>52</v>
       </c>
@@ -33139,7 +33138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="545" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="110" t="s">
         <v>54</v>
       </c>
@@ -33201,7 +33200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="546" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="110" t="s">
         <v>56</v>
       </c>
@@ -33263,7 +33262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="547" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="110" t="s">
         <v>58</v>
       </c>
@@ -33325,7 +33324,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="548" spans="1:21" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="31" t="s">
         <v>36</v>
       </c>
@@ -33387,7 +33386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="549" spans="1:21" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="110" t="s">
         <v>29</v>
       </c>
@@ -33449,7 +33448,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="550" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
         <v>17</v>
       </c>
@@ -33511,7 +33510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="551" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
         <v>22</v>
       </c>
@@ -33573,7 +33572,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="552" spans="1:21" s="101" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:21" s="101" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="102" t="s">
         <v>27</v>
       </c>
@@ -33635,7 +33634,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="553" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="1" t="s">
         <v>34</v>
       </c>
@@ -33697,7 +33696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="554" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="1" t="s">
         <v>38</v>
       </c>
@@ -33759,7 +33758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="555" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="1" t="s">
         <v>40</v>
       </c>
@@ -33821,7 +33820,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="556" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="1" t="s">
         <v>42</v>
       </c>
@@ -33869,7 +33868,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="557" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="1" t="s">
         <v>44</v>
       </c>
@@ -33931,7 +33930,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="558" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="1" t="s">
         <v>46</v>
       </c>
@@ -33993,7 +33992,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="559" spans="1:21" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:21" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
         <v>48</v>
       </c>
@@ -34055,7 +34054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="560" spans="1:21" s="101" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:21" s="101" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="102" t="s">
         <v>50</v>
       </c>
@@ -34117,7 +34116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="561" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="1" t="s">
         <v>52</v>
       </c>
@@ -34179,7 +34178,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="562" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="1" t="s">
         <v>54</v>
       </c>
@@ -34241,7 +34240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="563" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
         <v>56</v>
       </c>
@@ -34276,7 +34275,7 @@
         <v>15354659</v>
       </c>
       <c r="L563" s="3">
-        <v>9979878</v>
+        <v>979878</v>
       </c>
       <c r="M563" s="3">
         <v>3637535</v>
@@ -34303,7 +34302,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="564" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
         <v>58</v>
       </c>
@@ -34365,7 +34364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="565" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="4" t="s">
         <v>36</v>
       </c>
@@ -34427,7 +34426,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="566" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="8" t="s">
         <v>29</v>
       </c>
@@ -34489,7 +34488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="567" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="4" t="s">
         <v>24</v>
       </c>
@@ -34551,7 +34550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="568" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="4" t="s">
         <v>24</v>
       </c>
@@ -35055,7 +35054,7 @@
     </filterColumn>
     <filterColumn colId="6">
       <filters>
-        <filter val="Projected"/>
+        <filter val="Current"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -35137,901 +35136,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId59"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85390005-E539-429A-9DF5-F0C1D5DFC62C}">
-  <dimension ref="B4:P25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:P22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="10.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4">
-        <v>2021</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4">
-        <v>2022</v>
-      </c>
-      <c r="J4">
-        <v>2058663</v>
-      </c>
-      <c r="K4">
-        <v>1737840</v>
-      </c>
-      <c r="L4">
-        <v>303373</v>
-      </c>
-      <c r="M4">
-        <v>17450</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>17450</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5">
-        <v>2021</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5">
-        <v>2022</v>
-      </c>
-      <c r="J5">
-        <v>21880805</v>
-      </c>
-      <c r="K5">
-        <v>14153776</v>
-      </c>
-      <c r="L5">
-        <v>5094525</v>
-      </c>
-      <c r="M5">
-        <v>2196110</v>
-      </c>
-      <c r="N5">
-        <v>436393</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>2632503</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6">
-        <v>2021</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6">
-        <v>2022</v>
-      </c>
-      <c r="J6">
-        <v>16059751</v>
-      </c>
-      <c r="K6">
-        <v>12103666</v>
-      </c>
-      <c r="L6">
-        <v>3089274</v>
-      </c>
-      <c r="M6">
-        <v>866812</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>866812</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7">
-        <v>2021</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7">
-        <v>2022</v>
-      </c>
-      <c r="J7">
-        <v>6471546</v>
-      </c>
-      <c r="K7">
-        <v>5428309</v>
-      </c>
-      <c r="L7">
-        <v>766759</v>
-      </c>
-      <c r="M7">
-        <v>266381</v>
-      </c>
-      <c r="N7">
-        <v>10097</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>276478</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8">
-        <v>2021</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8">
-        <v>2022</v>
-      </c>
-      <c r="J8">
-        <v>2455839</v>
-      </c>
-      <c r="K8">
-        <v>1642345</v>
-      </c>
-      <c r="L8">
-        <v>606782</v>
-      </c>
-      <c r="M8">
-        <v>199751</v>
-      </c>
-      <c r="N8">
-        <v>6962</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>206712</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9">
-        <v>2021</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9">
-        <v>2022</v>
-      </c>
-      <c r="J9">
-        <v>1328669</v>
-      </c>
-      <c r="K9">
-        <v>1066356</v>
-      </c>
-      <c r="L9">
-        <v>221623</v>
-      </c>
-      <c r="M9">
-        <v>40689</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>40689</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10">
-        <v>2021</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11">
-        <v>2021</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11">
-        <v>2022</v>
-      </c>
-      <c r="J11">
-        <v>21696914</v>
-      </c>
-      <c r="K11">
-        <v>15444742</v>
-      </c>
-      <c r="L11">
-        <v>4411105</v>
-      </c>
-      <c r="M11">
-        <v>1684507</v>
-      </c>
-      <c r="N11">
-        <v>156560</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>1841067</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12">
-        <v>2021</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12">
-        <v>2022</v>
-      </c>
-      <c r="J12">
-        <v>4372039</v>
-      </c>
-      <c r="K12">
-        <v>2513006</v>
-      </c>
-      <c r="L12">
-        <v>1198293</v>
-      </c>
-      <c r="M12">
-        <v>626983</v>
-      </c>
-      <c r="N12">
-        <v>33757</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>660739</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13">
-        <v>2021</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13">
-        <v>2022</v>
-      </c>
-      <c r="J13">
-        <v>24933149</v>
-      </c>
-      <c r="K13">
-        <v>14226080</v>
-      </c>
-      <c r="L13">
-        <v>7069076</v>
-      </c>
-      <c r="M13">
-        <v>3337933</v>
-      </c>
-      <c r="N13">
-        <v>300051</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>3637983</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14">
-        <v>2021</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14">
-        <v>2022</v>
-      </c>
-      <c r="J14">
-        <v>159253322</v>
-      </c>
-      <c r="K14">
-        <v>95759981</v>
-      </c>
-      <c r="L14">
-        <v>45462670</v>
-      </c>
-      <c r="M14">
-        <v>17398004</v>
-      </c>
-      <c r="N14">
-        <v>619116</v>
-      </c>
-      <c r="O14">
-        <v>13551</v>
-      </c>
-      <c r="P14">
-        <v>18030672</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15">
-        <v>2021</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15">
-        <v>2022</v>
-      </c>
-      <c r="J15">
-        <v>17257945</v>
-      </c>
-      <c r="K15">
-        <v>12806215</v>
-      </c>
-      <c r="L15">
-        <v>3681329</v>
-      </c>
-      <c r="M15">
-        <v>757330</v>
-      </c>
-      <c r="N15">
-        <v>13071</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>770401</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16">
-        <v>2021</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16">
-        <v>2022</v>
-      </c>
-      <c r="J16">
-        <v>8605845</v>
-      </c>
-      <c r="K16">
-        <v>3711267</v>
-      </c>
-      <c r="L16">
-        <v>3441252</v>
-      </c>
-      <c r="M16">
-        <v>1453325</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>1453325</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17">
-        <v>2021</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17">
-        <v>2022</v>
-      </c>
-      <c r="J17">
-        <v>15354659</v>
-      </c>
-      <c r="K17">
-        <v>9979878</v>
-      </c>
-      <c r="L17">
-        <v>3637535</v>
-      </c>
-      <c r="M17">
-        <v>1593833</v>
-      </c>
-      <c r="N17">
-        <v>143412</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>1737246</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18">
-        <v>2021</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18">
-        <v>2022</v>
-      </c>
-      <c r="J18">
-        <v>5885720</v>
-      </c>
-      <c r="K18">
-        <v>4004615</v>
-      </c>
-      <c r="L18">
-        <v>1399163</v>
-      </c>
-      <c r="M18">
-        <v>481942</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>481942</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19">
-        <v>2021</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19">
-        <v>2022</v>
-      </c>
-      <c r="J19">
-        <v>11165931</v>
-      </c>
-      <c r="K19">
-        <v>8335012</v>
-      </c>
-      <c r="L19">
-        <v>2091534</v>
-      </c>
-      <c r="M19">
-        <v>739384</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>739384</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20">
-        <v>2021</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20">
-        <v>2022</v>
-      </c>
-      <c r="J20">
-        <v>26553619</v>
-      </c>
-      <c r="K20">
-        <v>17878588</v>
-      </c>
-      <c r="L20">
-        <v>6291162</v>
-      </c>
-      <c r="M20">
-        <v>2206250</v>
-      </c>
-      <c r="N20">
-        <v>177619</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>2383869</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21">
-        <v>2021</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21">
-        <v>2022</v>
-      </c>
-      <c r="J21">
-        <v>4942732</v>
-      </c>
-      <c r="K21">
-        <v>1054513</v>
-      </c>
-      <c r="L21">
-        <v>1528283</v>
-      </c>
-      <c r="M21">
-        <v>1671055</v>
-      </c>
-      <c r="N21">
-        <v>688882</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>2359937</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="J22">
-        <f>SUM(J4:J21)</f>
-        <v>350277148</v>
-      </c>
-      <c r="K22">
-        <f t="shared" ref="K22:P22" si="0">SUM(K4:K21)</f>
-        <v>221846189</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>90293738</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="0"/>
-        <v>35537739</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="0"/>
-        <v>2585920</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="0"/>
-        <v>13551</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="0"/>
-        <v>38137209</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>